--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ISTE Mailing Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7950B641-567C-461A-80C9-FE1F59E5BB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD7813-569F-4C3F-8280-971FDBBA1237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>aman.manit.work@gmail.com</t>
+  </si>
+  <si>
+    <t>Aman Malviya</t>
   </si>
 </sst>
 </file>
@@ -356,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -368,15 +371,18 @@
     <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
   </sheetData>

--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ISTE Mailing Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD7813-569F-4C3F-8280-971FDBBA1237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6FE55-6ED2-4315-8619-6431AACB74D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,17 +27,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>aman.manit.work@gmail.com</t>
+    <t>Aman</t>
   </si>
   <si>
-    <t>Aman Malviya</t>
+    <t>aman.istemanit@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +53,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -62,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,14 +76,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -359,11 +388,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -371,23 +398,145 @@
     <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{F583C038-DEE4-40B9-A230-B2748CC0ECDA}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{9A51EEF6-C58B-494C-9F77-D836437D72A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ISTE Mailing Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6FE55-6ED2-4315-8619-6431AACB74D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097C90B2-7FB1-4CCC-98E8-348962FDAA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Aman</t>
+    <t>amanmalviya14032000@gmail.com</t>
   </si>
   <si>
-    <t>aman.istemanit@gmail.com</t>
+    <t>Aman Malviya</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -400,10 +402,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ISTE Mailing Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097C90B2-7FB1-4CCC-98E8-348962FDAA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA3508B-2571-46FD-81D5-58CF9FA0284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>amanmalviya14032000@gmail.com</t>
-  </si>
-  <si>
-    <t>Aman Malviya</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,7 +384,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,12 +394,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="3"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -537,10 +526,7 @@
       <c r="B33" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{9A51EEF6-C58B-494C-9F77-D836437D72A2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>